--- a/メモYYYYMMDD.xlsx
+++ b/メモYYYYMMDD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asakuno tomohiro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{68841876-F043-49BA-931E-F85C64B1F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C168B9CF-8F71-4A6F-8A28-ADA399D03456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4725" windowWidth="24420" windowHeight="14445" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
+    <workbookView xWindow="3945" yWindow="1035" windowWidth="28425" windowHeight="18885" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
   <si>
     <t>No</t>
     <phoneticPr fontId="6"/>
@@ -1093,6 +1093,18 @@
     <rPh sb="0" eb="2">
       <t>チョウフク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MS-Office</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>msconfig</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AutoHotKey</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1320,7 +1332,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1396,6 +1408,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8039,15 +8054,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8062,7 +8077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14325599" y="72266175"/>
+          <a:off x="14287499" y="71847075"/>
           <a:ext cx="3629026" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8167,9 +8182,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
@@ -8193,8 +8208,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="17954625" y="72694800"/>
-          <a:ext cx="2809874" cy="204788"/>
+          <a:off x="17916525" y="72275700"/>
+          <a:ext cx="2847974" cy="623888"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8343,6 +8358,2189 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
             <a:latin typeface="+mj-ea"/>
             <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EDC34C-4164-4387-97E1-8C56A5A0F0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="71199375"/>
+          <a:ext cx="6324600" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15352781-C9CC-45DB-B98C-9FAF8FE855E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="71199375"/>
+          <a:ext cx="6315075" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2997F8B4-8F57-4B33-B64C-FC5A28351509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="72513826"/>
+          <a:ext cx="2009775" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31845"/>
+            <a:gd name="adj2" fmla="val -6250"/>
+            <a:gd name="adj3" fmla="val 86659"/>
+            <a:gd name="adj4" fmla="val -18672"/>
+            <a:gd name="adj5" fmla="val 157740"/>
+            <a:gd name="adj6" fmla="val -27988"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>日本語入力に必要。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E52664E-CD6C-482A-9A41-B7B180E151CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="72828151"/>
+          <a:ext cx="2009775" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31845"/>
+            <a:gd name="adj2" fmla="val -6250"/>
+            <a:gd name="adj3" fmla="val 86659"/>
+            <a:gd name="adj4" fmla="val -18672"/>
+            <a:gd name="adj5" fmla="val 157740"/>
+            <a:gd name="adj6" fmla="val -27988"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>MS-Office</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>起動に必要。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62FA673-5863-4D72-977F-B7DE6DF368C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="76200000"/>
+          <a:ext cx="7477125" cy="5667375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2646BF-D69C-4AE8-B31D-33494F2904DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="76199999"/>
+          <a:ext cx="7543800" cy="6191251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>■以下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ホットキー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー＋標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>c	googleChrome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ブラウザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			f	Firefox</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ブラウザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			g	Git(Sourcetree)(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			h	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>秀丸エディタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			k	Slack(chat)(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			p	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ペイント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			v	Gvim</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>エディタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Ctrl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>j	Jasper soft</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>サクラエディタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(※)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Alt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			c	Discord(chat)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			e	Evernote</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			i	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>一太郎</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>j	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ジャストシステムのツールとユーティリティ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>k	Kindle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			m	minecraft</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			n	Notepad++</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			o	Origin Game</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	Steam Game</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			t	calc(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>計算ソフトウェア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			w	JW_CAD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			x	Dropbox</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Alt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Shift + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Alt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Ctrl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>エクスプローラ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Ctrl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>e	Explorer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>をすべてアクティブにする。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>x	Explorer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>をすべてアクティブにする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(dropbox</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>以外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>Win</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ Shift</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>キー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>e	Explorer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>をすべて最小化にする。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>x	Explorer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>を順次アクティブにする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(dropbox</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>のみ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>アプリケーションキーとの組み合わせ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>AppsKey + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>Pause + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>F1 + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準キー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>a	Access	※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>切り替えがうまくいかず。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>b	Blend(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>廃止予定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)	※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>切り替えが全くうまくいかず。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>d	Delve(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			d	OneDrive</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			e	Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>アクティブ化</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>f	Forms(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			g	Groove(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>廃止</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>共同作業ツール</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>h	Publisher("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>版元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>の頭文字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>個人出版用ツール？	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>切り替えがうまくいかず。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>i	IDE(VisualStudio)	※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>切り替えがうまくいかず。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>i	InfoPath(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>廃止</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			k	Kaizala(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			k	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>スクリーンキーボード</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>l	Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>新規起動</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>l	Microsoft Lists(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			m	Outlook</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			n	OneNote</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			p	Planner(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			p	PowerPoint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			p	Project(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	PowerShell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	SharePoint(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	Skype(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	Stream(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			s	Sway(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			t	Microsoft Teams(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			t	To-Do(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			t	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>タスクマネージャ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>u	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>電卓</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>v	Visio(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			v	Visual Studio Code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			w	Whiteboard(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			w	Word</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			y	Yammer(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>設定無し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ポウズキー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(Pause)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>との組み合わせ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>上記</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>MS-Office</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>起動対応</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			i	IDE(Eclipse)	※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>起動させられない。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>F10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>との組み合わせ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>u	Bash on Ubuntu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			o	Oxygen Not Included</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>			f	Factorio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>※WindowOS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>標準のショートカットキーを上書きすることになるため、気をつけること。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -12946,7 +15144,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL295"/>
+  <dimension ref="A1:AL320"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -13435,12 +15633,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D291" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="292" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E292" s="17" t="s">
         <v>102</v>
       </c>
@@ -13451,7 +15649,7 @@
       </c>
       <c r="I292" s="19"/>
     </row>
-    <row r="293" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E293" s="17" t="s">
         <v>103</v>
       </c>
@@ -13462,7 +15660,7 @@
       </c>
       <c r="I293" s="19"/>
     </row>
-    <row r="294" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E294" s="17" t="s">
         <v>105</v>
       </c>
@@ -13473,7 +15671,7 @@
       </c>
       <c r="I294" s="19"/>
     </row>
-    <row r="295" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E295" s="17" t="s">
         <v>106</v>
       </c>
@@ -13483,6 +15681,21 @@
         <v>110</v>
       </c>
       <c r="I295" s="19"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B300" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A320" s="28" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -13493,9 +15706,10 @@
     <hyperlink ref="T83" r:id="rId4" xr:uid="{DE0CA062-E075-4E9F-B2FF-C7119096B9E1}"/>
     <hyperlink ref="Y124" r:id="rId5" xr:uid="{6C17AB30-7729-4D3C-BCAD-C46426245979}"/>
     <hyperlink ref="O18" r:id="rId6" xr:uid="{94A068EE-CAA7-4943-A7A3-745917590CC7}"/>
+    <hyperlink ref="A320" r:id="rId7" xr:uid="{23EEBEA9-153F-4A4A-860D-063ABBA7181E}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="22" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="22" fitToHeight="0" orientation="portrait" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;Z&amp;F&amp;R
 シート名：&amp;A</oddHeader>
@@ -13504,6 +15718,6 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="179" max="39" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/メモYYYYMMDD.xlsx
+++ b/メモYYYYMMDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asakuno tomohiro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asakuno tomohiro\dropboxSync\Dropbox\スクリーンショット\github_asakunotomohiro\14　←適度にPushする。\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C168B9CF-8F71-4A6F-8A28-ADA399D03456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C03B0-8B00-4E0D-84A2-FE25FE1C5FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1035" windowWidth="28425" windowHeight="18885" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
+    <workbookView xWindow="6765" yWindow="1005" windowWidth="28425" windowHeight="18885" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
   <si>
     <t>No</t>
     <phoneticPr fontId="6"/>
@@ -1107,6 +1107,26 @@
     <t>AutoHotKey</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>本質的↑目的</t>
+    <rPh sb="0" eb="3">
+      <t>ホンシツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>具体的↓手段</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1332,7 +1352,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,6 +1432,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
@@ -3691,6 +3714,711 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="二等辺三角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0B7315-1CC7-47C2-ADE4-0D0FCDBE6D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="9525001"/>
+          <a:ext cx="6753225" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3CA2E1-6670-403F-8796-40D42861343B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="9515475"/>
+          <a:ext cx="0" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2226469</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4495801</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75F1E95-FD39-4426-9952-9E7C0BD814AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6185297" y="10487025"/>
+          <a:ext cx="2269332" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1113238</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5613797</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93811BB4-12B8-4D2E-9873-0527381896F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5072066" y="11430000"/>
+          <a:ext cx="4500559" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3038475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DCCD5A-5761-430F-BCA2-3F56F1886CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="9963150"/>
+          <a:ext cx="723900" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>Why</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3038475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967C77C9-1E5D-4529-B17D-FA222CA12A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="10763250"/>
+          <a:ext cx="723900" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>What</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3038475</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E6D7DA-F85F-4EF0-813B-FA8F3CCFC3BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="11696700"/>
+          <a:ext cx="723900" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>How</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E1071B-CF34-444C-BD6B-FC57DC6AB6D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801349" y="9667875"/>
+          <a:ext cx="2257426" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="callout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48479"/>
+            <a:gd name="adj2" fmla="val 528"/>
+            <a:gd name="adj3" fmla="val 47635"/>
+            <a:gd name="adj4" fmla="val -121455"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>何のために</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6F811B-29CB-4F74-AC09-BF25D6194B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801349" y="10591800"/>
+          <a:ext cx="2257426" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="callout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48479"/>
+            <a:gd name="adj2" fmla="val 528"/>
+            <a:gd name="adj3" fmla="val 51689"/>
+            <a:gd name="adj4" fmla="val -74198"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>何を</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="線吹き出し 2 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36A3F9D-6F10-408C-B01D-864A26C25D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801349" y="11553825"/>
+          <a:ext cx="2257426" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="callout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48479"/>
+            <a:gd name="adj2" fmla="val 528"/>
+            <a:gd name="adj3" fmla="val 50338"/>
+            <a:gd name="adj4" fmla="val -25674"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>どのように</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10874,13 +11602,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11065,6 +11793,46 @@
       </c>
       <c r="H15" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C41" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C46" s="29"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C48" s="29"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C49" s="29"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C52" s="29" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/メモYYYYMMDD.xlsx
+++ b/メモYYYYMMDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asakuno tomohiro\dropboxSync\Dropbox\スクリーンショット\github_asakunotomohiro\14　←適度にPushする。\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asakuno tomohiro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C03B0-8B00-4E0D-84A2-FE25FE1C5FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6859E287-DA50-429B-91D1-53ED248D8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="1005" windowWidth="28425" windowHeight="18885" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
+    <workbookView xWindow="1230" yWindow="495" windowWidth="29775" windowHeight="18885" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="167">
   <si>
     <t>No</t>
     <phoneticPr fontId="6"/>
@@ -1127,6 +1127,26 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Edgeブラウザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AltキーとTabキーの組み合わせ挙動変更。</t>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -11275,6 +11295,231 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427628</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>113303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910DEB80-54A8-4400-9D17-D6579E4FA700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="82867500"/>
+          <a:ext cx="7971428" cy="7971428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07757972-C708-45A4-A9CC-7437BB68B32E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:srcRect l="11344" t="10527" r="4465" b="4082"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="89192101"/>
+          <a:ext cx="2686050" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B172DE2A-4E60-4C00-A097-7F25608E735E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962399" y="90163650"/>
+          <a:ext cx="2695575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E8A156-7E5A-4081-AB0F-664A61941ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="88039574"/>
+          <a:ext cx="1238250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11608,7 +11853,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15912,7 +16157,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL320"/>
+  <dimension ref="A1:AL348"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -16463,6 +16708,14 @@
     <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320" s="28" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>165</v>
+      </c>
+      <c r="D348" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/メモYYYYMMDD.xlsx
+++ b/メモYYYYMMDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asakuno tomohiro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asakuno tomohiro\Downloads\windowsで編集20230618\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6859E287-DA50-429B-91D1-53ED248D8D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A735F3DC-A7B1-4525-81B7-CE9C8758CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="495" windowWidth="29775" windowHeight="18885" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
+    <workbookView xWindow="5880" yWindow="510" windowWidth="28800" windowHeight="18165" activeTab="2" xr2:uid="{FBFCF79F-DE18-4D55-8CFC-5B607FD0DB33}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形" sheetId="6" r:id="rId1"/>
@@ -1546,8 +1546,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1615,8 +1615,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4546,14 +4546,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
@@ -4583,7 +4583,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="5057776"/>
+          <a:off x="1990725" y="24345901"/>
           <a:ext cx="4429126" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4595,14 +4595,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
@@ -4632,7 +4632,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104901" y="6619876"/>
+          <a:off x="1990726" y="25908001"/>
           <a:ext cx="4419600" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4644,14 +4644,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4668,7 +4668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="5314950"/>
+          <a:off x="2371725" y="24603075"/>
           <a:ext cx="504825" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="curvedLeftArrow">
@@ -9504,6 +9504,31 @@
             </a:rPr>
             <a:t>ホットキー</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>この情報は古い</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -16160,7 +16185,7 @@
   <dimension ref="A1:AL348"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
